--- a/public/data/soil/soil_table_zambia.xlsx
+++ b/public/data/soil/soil_table_zambia.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -986,28 +986,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>2204.6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>49415.7</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>278570.2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.836</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.209</v>
+        <v>16.257</v>
       </c>
       <c r="K2" t="n">
-        <v>128.802</v>
+        <v>128.099</v>
       </c>
     </row>
     <row r="3">
@@ -1021,28 +1021,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>739.9</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1080.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14510.7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>223383.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.551</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.462</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>81.889</v>
+        <v>100.874</v>
       </c>
     </row>
     <row r="4">
@@ -1056,28 +1056,28 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>89636.3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>192122.3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24474.1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>20.251</v>
+        <v>16.227</v>
       </c>
       <c r="I4" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.549</v>
+        <v>52.642</v>
       </c>
       <c r="K4" t="n">
-        <v>5.532</v>
+        <v>8.262</v>
       </c>
     </row>
     <row r="5">
@@ -1091,28 +1091,28 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>3170.8</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>142862.6</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>167409.3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.835</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>37.78</v>
+        <v>42.247</v>
       </c>
       <c r="K5" t="n">
-        <v>49.949</v>
+        <v>52.129</v>
       </c>
     </row>
     <row r="6">
@@ -1126,28 +1126,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>5012.9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>273.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24982.6</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>40012.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.209</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.173</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>16.529</v>
+        <v>20.063</v>
       </c>
       <c r="K6" t="n">
-        <v>26.781</v>
+        <v>21.108</v>
       </c>
     </row>
     <row r="7">
@@ -1161,28 +1161,28 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>54835.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>220317.8</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>113582.8</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.781</v>
+        <v>10.653</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>110.102</v>
+        <v>139.502</v>
       </c>
       <c r="K7" t="n">
-        <v>43.579</v>
+        <v>31.894</v>
       </c>
     </row>
     <row r="8">
@@ -1196,28 +1196,28 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>1646.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>93382.5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>116583.9</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.109</v>
+        <v>13.373</v>
       </c>
       <c r="K8" t="n">
-        <v>21.694</v>
+        <v>18.809</v>
       </c>
     </row>
     <row r="9">
@@ -1231,28 +1231,28 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>101551.2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>511.8</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>131361.3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>58110.9</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>59.957</v>
+        <v>57.352</v>
       </c>
       <c r="I9" t="n">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>59.633</v>
+        <v>69.646</v>
       </c>
       <c r="K9" t="n">
-        <v>27.575</v>
+        <v>22.406</v>
       </c>
     </row>
     <row r="10">
@@ -1266,28 +1266,28 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>24161</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>61.7</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>205001.7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>263105.5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>7.305</v>
+        <v>2.502</v>
       </c>
       <c r="I10" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>57.346</v>
+        <v>60.517</v>
       </c>
       <c r="K10" t="n">
-        <v>115.233</v>
+        <v>115.089</v>
       </c>
     </row>
     <row r="11">
@@ -1301,28 +1301,28 @@
         <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>28180.7</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>39315.8</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>58238.2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>10.363</v>
+        <v>8.033</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>13.996</v>
+        <v>19.327</v>
       </c>
       <c r="K11" t="n">
-        <v>22.868</v>
+        <v>22.231</v>
       </c>
     </row>
     <row r="12">
@@ -1336,28 +1336,28 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>116017.4</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>112.7</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>196089.7</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>41395.4</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>32.634</v>
+        <v>33.75</v>
       </c>
       <c r="I12" t="n">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>49.728</v>
+        <v>54.815</v>
       </c>
       <c r="K12" t="n">
-        <v>8.167</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="13">
@@ -1371,28 +1371,28 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>36016.7</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9804.6</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>412.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.793</v>
+        <v>20.385</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.819</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1406,25 +1406,25 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>56745.9</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10478.6</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>385.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.213</v>
+        <v>33.741</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.672</v>
+        <v>1.699</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1441,28 +1441,28 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>44634.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>6197.6</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1271.2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>26.779</v>
+        <v>24.463</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.383</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1476,25 +1476,25 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>41257.9</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14839.2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.009</v>
+        <v>26.719</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.697</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1511,28 +1511,28 @@
         <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>28767</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9194.6</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.958</v>
+        <v>5.696</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.374</v>
+        <v>3.63</v>
       </c>
       <c r="K17" t="n">
-        <v>0.291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1546,28 +1546,28 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>230917.1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>10840.9</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>439.4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>69.933</v>
+        <v>74.181</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.493</v>
+        <v>4.142</v>
       </c>
       <c r="K18" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1581,28 +1581,28 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>127623.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13902.9</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>509.7</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>75.775</v>
+        <v>81.867</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.071</v>
+        <v>3.574</v>
       </c>
       <c r="K19" t="n">
-        <v>0.169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1616,28 +1616,28 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>113083.3</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>76145.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>12203.6</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>49.113</v>
+        <v>48.929</v>
       </c>
       <c r="I20" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.754</v>
+        <v>54.255</v>
       </c>
       <c r="K20" t="n">
-        <v>7.292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1651,28 +1651,28 @@
         <v>51</v>
       </c>
       <c r="D21" t="n">
-        <v>25264.2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6955</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>218.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>16.254</v>
+        <v>19.413</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.657</v>
+        <v>8.101</v>
       </c>
       <c r="K21" t="n">
-        <v>0.219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1686,28 +1686,28 @@
         <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>32837.6</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>13121.3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>4514.3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>21.409</v>
+        <v>22.183</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.935</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3385.2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>66534.9</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.722</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>63.682</v>
+        <v>62.321</v>
       </c>
     </row>
     <row r="24">
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1336.3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>97745.3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.435</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>93.353</v>
+        <v>90.337</v>
       </c>
     </row>
     <row r="25">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10768.7</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>104615.2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8.564</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>99.804</v>
+        <v>108.075</v>
       </c>
     </row>
     <row r="26">
@@ -1829,25 +1829,25 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>43.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6890.8</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>73457</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7.03</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>57.537</v>
+        <v>68.664</v>
       </c>
     </row>
     <row r="27">
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>12030.7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>72492.7</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.421</v>
+        <v>8.582</v>
       </c>
       <c r="K27" t="n">
-        <v>72.106</v>
+        <v>76.526</v>
       </c>
     </row>
     <row r="28">
@@ -1902,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2786.4</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120137.6</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.741</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>115.702</v>
+        <v>122.495</v>
       </c>
     </row>
     <row r="29">
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>13662</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>207898.6</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.81</v>
+        <v>3.21</v>
       </c>
       <c r="K29" t="n">
-        <v>115.625</v>
+        <v>124.527</v>
       </c>
     </row>
     <row r="30">
@@ -1972,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>72040</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1984,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>68.691</v>
+        <v>62.648</v>
       </c>
     </row>
     <row r="31">
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>19250.5</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>97890.3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>13.19</v>
+        <v>10.492</v>
       </c>
       <c r="K31" t="n">
-        <v>64.473</v>
+        <v>76.988</v>
       </c>
     </row>
     <row r="32">
@@ -2042,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>48936.2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>126939.6</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>22.522</v>
+        <v>18.891</v>
       </c>
       <c r="K32" t="n">
-        <v>54.213</v>
+        <v>62.393</v>
       </c>
     </row>
     <row r="33">
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>19315.5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>213334.3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>56.699</v>
+        <v>51.741</v>
       </c>
       <c r="K33" t="n">
-        <v>218.016</v>
+        <v>215.811</v>
       </c>
     </row>
     <row r="34">
@@ -2112,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3410</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>129556.3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>4.228</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>123.87</v>
+        <v>134.751</v>
       </c>
     </row>
     <row r="35">
@@ -2147,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6234.5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>31661.3</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>6.848</v>
+        <v>6.578</v>
       </c>
       <c r="K35" t="n">
-        <v>23.565</v>
+        <v>28.938</v>
       </c>
     </row>
     <row r="36">
@@ -2176,25 +2176,25 @@
         <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>59339.6</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4659.5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>128.6</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>85.746</v>
+        <v>98.625</v>
       </c>
       <c r="I36" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.587</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2211,28 +2211,28 @@
         <v>69</v>
       </c>
       <c r="D37" t="n">
-        <v>28994.9</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>62.1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>21224.5</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13107.3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.995</v>
+        <v>34.31</v>
       </c>
       <c r="I37" t="n">
-        <v>0.112</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>28.14</v>
+        <v>45.291</v>
       </c>
       <c r="K37" t="n">
-        <v>6.364</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="38">
@@ -2246,28 +2246,28 @@
         <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>37420.6</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3022.7</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>15897.7</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>10551.6</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>38.485</v>
+        <v>38.895</v>
       </c>
       <c r="I38" t="n">
-        <v>3.417</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>20.418</v>
+        <v>27.845</v>
       </c>
       <c r="K38" t="n">
-        <v>13.032</v>
+        <v>17.497</v>
       </c>
     </row>
     <row r="39">
@@ -2281,25 +2281,25 @@
         <v>71</v>
       </c>
       <c r="D39" t="n">
-        <v>101998.7</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>23816.6</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>23.027</v>
+        <v>29.015</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.615</v>
+        <v>4.003</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2316,28 +2316,28 @@
         <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>99494.3</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>69044.9</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>49.494</v>
+        <v>67.269</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.623</v>
+        <v>27.921</v>
       </c>
       <c r="K40" t="n">
-        <v>0.048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2351,28 +2351,28 @@
         <v>73</v>
       </c>
       <c r="D41" t="n">
-        <v>711.7</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>16658.7</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>23125</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.272</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>7.299</v>
+        <v>15.092</v>
       </c>
       <c r="K41" t="n">
-        <v>11.507</v>
+        <v>14.787</v>
       </c>
     </row>
     <row r="42">
@@ -2386,28 +2386,28 @@
         <v>74</v>
       </c>
       <c r="D42" t="n">
-        <v>170806.9</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>16188.8</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>65355.3</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>22526.6</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>191.577</v>
+        <v>209.712</v>
       </c>
       <c r="I42" t="n">
-        <v>15.332</v>
+        <v>6.496</v>
       </c>
       <c r="J42" t="n">
-        <v>57.086</v>
+        <v>58.244</v>
       </c>
       <c r="K42" t="n">
-        <v>16.02</v>
+        <v>11.429</v>
       </c>
     </row>
     <row r="43">
@@ -2421,28 +2421,28 @@
         <v>75</v>
       </c>
       <c r="D43" t="n">
-        <v>171595</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>3868.5</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19335.2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2640.2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>21.203</v>
+        <v>25.917</v>
       </c>
       <c r="I43" t="n">
-        <v>1.038</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.94</v>
+        <v>0.82</v>
       </c>
       <c r="K43" t="n">
-        <v>0.858</v>
+        <v>1.572</v>
       </c>
     </row>
     <row r="44">
@@ -2456,28 +2456,28 @@
         <v>76</v>
       </c>
       <c r="D44" t="n">
-        <v>12453.8</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>12533.8</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1156.5</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16.218</v>
+        <v>20.557</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.687</v>
+        <v>18.561</v>
       </c>
       <c r="K44" t="n">
-        <v>1.744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2491,28 +2491,28 @@
         <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>49295.8</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>18602.9</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2172.8</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>32.515</v>
+        <v>28.301</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>17.863</v>
+        <v>23.673</v>
       </c>
       <c r="K45" t="n">
-        <v>2.046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2526,28 +2526,28 @@
         <v>78</v>
       </c>
       <c r="D46" t="n">
-        <v>22838.9</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>30558.8</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9852.8</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>38.374</v>
+        <v>52.966</v>
       </c>
       <c r="I46" t="n">
-        <v>0.166</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>35.282</v>
+        <v>52.068</v>
       </c>
       <c r="K46" t="n">
-        <v>7.259</v>
+        <v>9.667</v>
       </c>
     </row>
     <row r="47">
@@ -2561,28 +2561,28 @@
         <v>79</v>
       </c>
       <c r="D47" t="n">
-        <v>27659.4</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>9140.7</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>19436.1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>28829.8</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>22.127</v>
+        <v>20.19</v>
       </c>
       <c r="I47" t="n">
-        <v>10.046</v>
+        <v>6.627</v>
       </c>
       <c r="J47" t="n">
-        <v>19.546</v>
+        <v>17.289</v>
       </c>
       <c r="K47" t="n">
-        <v>24.522</v>
+        <v>23.906</v>
       </c>
     </row>
     <row r="48">
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2839.7</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>60691.1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.866</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>43.425</v>
+        <v>51.891</v>
       </c>
     </row>
     <row r="49">
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>38457.9</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>39.527</v>
+        <v>45.852</v>
       </c>
     </row>
     <row r="50">
@@ -2666,28 +2666,28 @@
         <v>83</v>
       </c>
       <c r="D50" t="n">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1026.3</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4914.8</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>95719.7</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.707</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.305</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>53.976</v>
+        <v>57.975</v>
       </c>
     </row>
     <row r="51">
@@ -2704,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>142.8</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>8549.7</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>100899.8</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.648</v>
+        <v>0.762</v>
       </c>
       <c r="K51" t="n">
-        <v>53.172</v>
+        <v>57.851</v>
       </c>
     </row>
     <row r="52">
@@ -2742,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2185.3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>51105.6</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.686</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>20.829</v>
+        <v>21.499</v>
       </c>
     </row>
     <row r="53">
@@ -2771,25 +2771,25 @@
         <v>80</v>
       </c>
       <c r="D53" t="n">
-        <v>140.2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>739.1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>8365</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>11681.1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>178122.7</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>4.542</v>
+        <v>0.195</v>
       </c>
       <c r="K54" t="n">
-        <v>51.839</v>
+        <v>61.338</v>
       </c>
     </row>
     <row r="55">
@@ -2841,28 +2841,28 @@
         <v>87</v>
       </c>
       <c r="D55" t="n">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>3300.6</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>56785.8</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3.251</v>
+        <v>3.547</v>
       </c>
       <c r="K55" t="n">
-        <v>48.455</v>
+        <v>46.272</v>
       </c>
     </row>
     <row r="56">
@@ -2876,28 +2876,28 @@
         <v>89</v>
       </c>
       <c r="D56" t="n">
-        <v>635.6</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>39147</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>279100.5</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.254</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>8.767</v>
+        <v>9.176</v>
       </c>
       <c r="K56" t="n">
-        <v>107.245</v>
+        <v>117.731</v>
       </c>
     </row>
     <row r="57">
@@ -2911,28 +2911,28 @@
         <v>90</v>
       </c>
       <c r="D57" t="n">
-        <v>665.4</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>115.5</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>91025.3</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>110143.2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.205</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>34.587</v>
+        <v>37.549</v>
       </c>
       <c r="K57" t="n">
-        <v>38.995</v>
+        <v>40.73</v>
       </c>
     </row>
     <row r="58">
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>48944.7</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>115039.3</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>27.845</v>
+        <v>22.542</v>
       </c>
       <c r="K58" t="n">
-        <v>44.539</v>
+        <v>42.839</v>
       </c>
     </row>
     <row r="59">
@@ -2981,28 +2981,28 @@
         <v>92</v>
       </c>
       <c r="D59" t="n">
-        <v>44393.7</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>66.8</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>198852</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>11600.4</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>12.036</v>
+        <v>9.672</v>
       </c>
       <c r="I59" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>57.936</v>
+        <v>63.61</v>
       </c>
       <c r="K59" t="n">
-        <v>4.369</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="60">
@@ -3016,28 +3016,28 @@
         <v>93</v>
       </c>
       <c r="D60" t="n">
-        <v>32206.9</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>192541.2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>64007.6</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>5.676</v>
+        <v>6.879</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>17.651</v>
+        <v>19.44</v>
       </c>
       <c r="K60" t="n">
-        <v>8.889</v>
+        <v>12.149</v>
       </c>
     </row>
     <row r="61">
@@ -3051,28 +3051,28 @@
         <v>94</v>
       </c>
       <c r="D61" t="n">
-        <v>1198.6</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>325.7</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>48572.1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>72184.4</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.115</v>
+        <v>1.597</v>
       </c>
       <c r="J61" t="n">
-        <v>36.334</v>
+        <v>37.46</v>
       </c>
       <c r="K61" t="n">
-        <v>45.116</v>
+        <v>45.722</v>
       </c>
     </row>
     <row r="62">
@@ -3086,28 +3086,28 @@
         <v>95</v>
       </c>
       <c r="D62" t="n">
-        <v>18827.3</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1137.7</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>120256.9</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>193252.6</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>9.176</v>
+        <v>5.236</v>
       </c>
       <c r="I62" t="n">
-        <v>0.697</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>51.567</v>
+        <v>60.977</v>
       </c>
       <c r="K62" t="n">
-        <v>24.019</v>
+        <v>11.955</v>
       </c>
     </row>
     <row r="63">
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>48540.3</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>105012.1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>36.816</v>
+        <v>42.703</v>
       </c>
       <c r="K63" t="n">
-        <v>59.279</v>
+        <v>52.649</v>
       </c>
     </row>
     <row r="64">
@@ -3156,28 +3156,28 @@
         <v>97</v>
       </c>
       <c r="D64" t="n">
-        <v>9692.5</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>172334.5</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>93242.7</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2.294</v>
+        <v>1.158</v>
       </c>
       <c r="I64" t="n">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>33.963</v>
+        <v>38.828</v>
       </c>
       <c r="K64" t="n">
-        <v>17.377</v>
+        <v>15.477</v>
       </c>
     </row>
     <row r="65">
@@ -3191,28 +3191,28 @@
         <v>99</v>
       </c>
       <c r="D65" t="n">
-        <v>1363.9</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>25603</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>63848.4</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>15.696</v>
+        <v>18.028</v>
       </c>
       <c r="K65" t="n">
-        <v>15.625</v>
+        <v>10.507</v>
       </c>
     </row>
     <row r="66">
@@ -3226,25 +3226,25 @@
         <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>36834.6</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>5878.9</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>34.435</v>
+        <v>39.321</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.577</v>
+        <v>1.814</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3261,28 +3261,28 @@
         <v>101</v>
       </c>
       <c r="D67" t="n">
-        <v>33194.6</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>67221.6</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>4852.1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>10.605</v>
+        <v>8.12</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>32.359</v>
+        <v>44.479</v>
       </c>
       <c r="K67" t="n">
-        <v>1.677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3296,25 +3296,25 @@
         <v>102</v>
       </c>
       <c r="D68" t="n">
-        <v>164985.5</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>12956.2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>64.661</v>
+        <v>71.4</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>6.122</v>
+        <v>4.686</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3331,28 +3331,28 @@
         <v>103</v>
       </c>
       <c r="D69" t="n">
-        <v>184304.3</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>107117.6</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>30237.5</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>43.396</v>
+        <v>50.997</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>20.59</v>
+        <v>22.583</v>
       </c>
       <c r="K69" t="n">
-        <v>4.412</v>
+        <v>3.859</v>
       </c>
     </row>
     <row r="70">
@@ -3366,28 +3366,28 @@
         <v>104</v>
       </c>
       <c r="D70" t="n">
-        <v>34602.2</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>33088.3</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>2262.4</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>16.211</v>
+        <v>33.046</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>22.08</v>
+        <v>27.773</v>
       </c>
       <c r="K70" t="n">
-        <v>0.928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3401,28 +3401,28 @@
         <v>105</v>
       </c>
       <c r="D71" t="n">
-        <v>175506.7</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>115977.5</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>25172.6</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>36.055</v>
+        <v>41.215</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>18.403</v>
+        <v>16.956</v>
       </c>
       <c r="K71" t="n">
-        <v>3.52</v>
+        <v>3.811</v>
       </c>
     </row>
     <row r="72">
@@ -3436,28 +3436,28 @@
         <v>106</v>
       </c>
       <c r="D72" t="n">
-        <v>72345.8</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>77267.9</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>198.7</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>12.829</v>
+        <v>11.952</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>17.436</v>
+        <v>21.11</v>
       </c>
       <c r="K72" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3471,25 +3471,25 @@
         <v>107</v>
       </c>
       <c r="D73" t="n">
-        <v>147586.6</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>87778</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>69.967</v>
+        <v>88.361</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>36.48</v>
+        <v>37.578</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -3506,25 +3506,25 @@
         <v>108</v>
       </c>
       <c r="D74" t="n">
-        <v>244110.9</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>9493.4</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>109.164</v>
+        <v>123.446</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3.045</v>
+        <v>0.352</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3541,28 +3541,28 @@
         <v>109</v>
       </c>
       <c r="D75" t="n">
-        <v>37802.6</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>97781.2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>94460</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>19.823</v>
+        <v>20.039</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>46.091</v>
+        <v>60.815</v>
       </c>
       <c r="K75" t="n">
-        <v>22.067</v>
+        <v>19.498</v>
       </c>
     </row>
     <row r="76">
@@ -3576,28 +3576,28 @@
         <v>111</v>
       </c>
       <c r="D76" t="n">
-        <v>33544.8</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>61.9</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>39442.1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>34375.1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>25.884</v>
+        <v>20.038</v>
       </c>
       <c r="I76" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>31.948</v>
+        <v>47.228</v>
       </c>
       <c r="K76" t="n">
-        <v>27.186</v>
+        <v>23.802</v>
       </c>
     </row>
     <row r="77">
@@ -3611,28 +3611,28 @@
         <v>112</v>
       </c>
       <c r="D77" t="n">
-        <v>27979.5</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>746.8</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>30252.3</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>29386.4</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>17.85</v>
+        <v>18.007</v>
       </c>
       <c r="I77" t="n">
-        <v>0.814</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>25.855</v>
+        <v>35.191</v>
       </c>
       <c r="K77" t="n">
-        <v>27.643</v>
+        <v>26.684</v>
       </c>
     </row>
     <row r="78">
@@ -3646,28 +3646,28 @@
         <v>113</v>
       </c>
       <c r="D78" t="n">
-        <v>143079.3</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>702.4</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>217194.4</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>6543</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>74.181</v>
+        <v>77.341</v>
       </c>
       <c r="I78" t="n">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>89.799</v>
+        <v>91.166</v>
       </c>
       <c r="K78" t="n">
-        <v>1.461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3681,28 +3681,28 @@
         <v>114</v>
       </c>
       <c r="D79" t="n">
-        <v>66024.3</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>66.9</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>169055</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1831.8</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>17.908</v>
+        <v>10.553</v>
       </c>
       <c r="I79" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>48.254</v>
+        <v>58.212</v>
       </c>
       <c r="K79" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3716,28 +3716,28 @@
         <v>115</v>
       </c>
       <c r="D80" t="n">
-        <v>99119.8</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>110.7</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>61161.2</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1099.8</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>35.445</v>
+        <v>33.523</v>
       </c>
       <c r="I80" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>24.656</v>
+        <v>24.091</v>
       </c>
       <c r="K80" t="n">
-        <v>0.831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3751,28 +3751,28 @@
         <v>116</v>
       </c>
       <c r="D81" t="n">
-        <v>71863.8</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>109439.1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>535.7</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>29.786</v>
+        <v>24.619</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>50</v>
+        <v>56.007</v>
       </c>
       <c r="K81" t="n">
-        <v>0.276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3786,28 +3786,28 @@
         <v>117</v>
       </c>
       <c r="D82" t="n">
-        <v>28913.2</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>472.7</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>68310.4</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>23350.4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>27.82</v>
+        <v>29.759</v>
       </c>
       <c r="I82" t="n">
-        <v>0.451</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>57.796</v>
+        <v>62.874</v>
       </c>
       <c r="K82" t="n">
-        <v>16.23</v>
+        <v>8.183</v>
       </c>
     </row>
     <row r="83">
@@ -3821,28 +3821,28 @@
         <v>118</v>
       </c>
       <c r="D83" t="n">
-        <v>54366.1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>37903.8</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>429.8</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>24.827</v>
+        <v>25.93</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>16.483</v>
+        <v>18.607</v>
       </c>
       <c r="K83" t="n">
-        <v>0.224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3856,28 +3856,28 @@
         <v>119</v>
       </c>
       <c r="D84" t="n">
-        <v>65535.4</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>76857.9</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>7408.2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>37.025</v>
+        <v>39.607</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>59.427</v>
+        <v>73.937</v>
       </c>
       <c r="K84" t="n">
-        <v>7.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3891,28 +3891,28 @@
         <v>120</v>
       </c>
       <c r="D85" t="n">
-        <v>9730.2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>2015.5</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>201120.9</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>84813.6</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>6.23</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1.056</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>100.412</v>
+        <v>117.558</v>
       </c>
       <c r="K85" t="n">
-        <v>43.759</v>
+        <v>28.127</v>
       </c>
     </row>
     <row r="86">
@@ -3926,28 +3926,28 @@
         <v>121</v>
       </c>
       <c r="D86" t="n">
-        <v>46178.7</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>51996.7</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>21268.9</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>15.078</v>
+        <v>16.148</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>22.999</v>
+        <v>33.099</v>
       </c>
       <c r="K86" t="n">
-        <v>10.199</v>
+        <v>3.693</v>
       </c>
     </row>
     <row r="87">
@@ -3961,28 +3961,28 @@
         <v>122</v>
       </c>
       <c r="D87" t="n">
-        <v>10412.7</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>198.4</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>104019.5</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>67962.7</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>6.481</v>
+        <v>0.896</v>
       </c>
       <c r="I87" t="n">
-        <v>0.193</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>71.841</v>
+        <v>90.693</v>
       </c>
       <c r="K87" t="n">
-        <v>34.057</v>
+        <v>23.762</v>
       </c>
     </row>
     <row r="88">
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>4570.5</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>93588.5</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4014,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.877</v>
+        <v>0.402</v>
       </c>
       <c r="K88" t="n">
-        <v>52.892</v>
+        <v>53.761</v>
       </c>
     </row>
     <row r="89">
@@ -4031,28 +4031,28 @@
         <v>125</v>
       </c>
       <c r="D89" t="n">
-        <v>5688.6</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>2071.2</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>22778.2</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>196187.5</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>3.707</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1.278</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>14.337</v>
+        <v>4.335</v>
       </c>
       <c r="K89" t="n">
-        <v>109.337</v>
+        <v>122.984</v>
       </c>
     </row>
     <row r="90">
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2356.6</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>72829.1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.629</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>58.859</v>
+        <v>64.985</v>
       </c>
     </row>
     <row r="91">
@@ -4107,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>13763.1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>364538</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>7.06</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>193.603</v>
+        <v>197.323</v>
       </c>
     </row>
     <row r="92">
@@ -4142,10 +4142,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>24306.8</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>359173.8</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4154,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>4.832</v>
+        <v>2.357</v>
       </c>
       <c r="K92" t="n">
-        <v>113.523</v>
+        <v>127.022</v>
       </c>
     </row>
     <row r="93">
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>491.3</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>20978</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.398</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>24.727</v>
+        <v>27.321</v>
       </c>
     </row>
     <row r="94">
@@ -4206,16 +4206,16 @@
         <v>130</v>
       </c>
       <c r="D94" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>2721.6</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>140195.4</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4224,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.519</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>92.813</v>
+        <v>94.799</v>
       </c>
     </row>
     <row r="95">
@@ -4241,28 +4241,28 @@
         <v>131</v>
       </c>
       <c r="D95" t="n">
-        <v>67.7</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>3279.3</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>194735.7</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.082</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.078</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.993</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>127.63</v>
+        <v>146.125</v>
       </c>
     </row>
     <row r="96">
@@ -4282,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>13110.4</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>143128.3</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4294,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>7.813</v>
+        <v>4.239</v>
       </c>
       <c r="K96" t="n">
-        <v>87.851</v>
+        <v>89.909</v>
       </c>
     </row>
     <row r="97">
@@ -4311,28 +4311,28 @@
         <v>133</v>
       </c>
       <c r="D97" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>130.9</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1261.1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>87312.5</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.715</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>32.128</v>
+        <v>30.571</v>
       </c>
     </row>
     <row r="98">
@@ -4352,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>38270.2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4364,10 +4364,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>35.063</v>
+        <v>33.582</v>
       </c>
     </row>
     <row r="99">
@@ -4387,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2603</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>79596.8</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.592</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>74.348</v>
+        <v>85.21</v>
       </c>
     </row>
     <row r="100">
@@ -4422,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>8922</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>162394.8</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4434,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>6.49</v>
+        <v>2.843</v>
       </c>
       <c r="K100" t="n">
-        <v>102.307</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="101">
@@ -4451,16 +4451,16 @@
         <v>138</v>
       </c>
       <c r="D101" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>65333.4</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>121702.8</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4469,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>28.721</v>
+        <v>35.746</v>
       </c>
       <c r="K101" t="n">
-        <v>40.866</v>
+        <v>38.639</v>
       </c>
     </row>
     <row r="102">
@@ -4486,28 +4486,28 @@
         <v>139</v>
       </c>
       <c r="D102" t="n">
-        <v>18884.6</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>143008.7</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>33821.3</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6.299</v>
+        <v>2.693</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>51.725</v>
+        <v>69.127</v>
       </c>
       <c r="K102" t="n">
-        <v>13.419</v>
+        <v>5.594</v>
       </c>
     </row>
     <row r="103">
@@ -4527,10 +4527,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>44952.6</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>63183.1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>17.005</v>
+        <v>29.125</v>
       </c>
       <c r="K103" t="n">
-        <v>20.796</v>
+        <v>13.288</v>
       </c>
     </row>
     <row r="104">
@@ -4556,28 +4556,28 @@
         <v>141</v>
       </c>
       <c r="D104" t="n">
-        <v>906.2</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>136187.2</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>42603</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>43.133</v>
+        <v>53.854</v>
       </c>
       <c r="K104" t="n">
-        <v>10.72</v>
+        <v>3.534</v>
       </c>
     </row>
     <row r="105">
@@ -4591,28 +4591,28 @@
         <v>142</v>
       </c>
       <c r="D105" t="n">
-        <v>11757.4</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>72662.2</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>58219.5</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>2.785</v>
+        <v>3.556</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>32.022</v>
+        <v>46.606</v>
       </c>
       <c r="K105" t="n">
-        <v>20.837</v>
+        <v>14.806</v>
       </c>
     </row>
     <row r="106">
@@ -4632,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>18427.7</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>83708.1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4644,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>6.357</v>
+        <v>6.279</v>
       </c>
       <c r="K106" t="n">
-        <v>27.249</v>
+        <v>28.279</v>
       </c>
     </row>
     <row r="107">
@@ -4661,28 +4661,28 @@
         <v>144</v>
       </c>
       <c r="D107" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>89057</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>60775.7</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>35.704</v>
+        <v>46.575</v>
       </c>
       <c r="K107" t="n">
-        <v>33.837</v>
+        <v>26.345</v>
       </c>
     </row>
     <row r="108">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>39328.3</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>144015.9</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4714,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>5.313</v>
+        <v>4.436</v>
       </c>
       <c r="K108" t="n">
-        <v>20.832</v>
+        <v>23.768</v>
       </c>
     </row>
     <row r="109">
@@ -4731,28 +4731,28 @@
         <v>146</v>
       </c>
       <c r="D109" t="n">
-        <v>63.6</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>15119.5</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>89404.8</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.925</v>
+        <v>2.242</v>
       </c>
       <c r="K109" t="n">
-        <v>21.054</v>
+        <v>24.837</v>
       </c>
     </row>
     <row r="110">
@@ -4772,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>24452.8</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>86494.5</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4784,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>12.647</v>
+        <v>11.74</v>
       </c>
       <c r="K110" t="n">
-        <v>35.424</v>
+        <v>36.002</v>
       </c>
     </row>
     <row r="111">
@@ -4801,28 +4801,28 @@
         <v>148</v>
       </c>
       <c r="D111" t="n">
-        <v>9778</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>100255.1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>11448.3</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>2.515</v>
+        <v>0.662</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>31.158</v>
+        <v>39.026</v>
       </c>
       <c r="K111" t="n">
-        <v>5.046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4836,28 +4836,28 @@
         <v>149</v>
       </c>
       <c r="D112" t="n">
-        <v>170.7</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>62944.6</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>118302</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>11.392</v>
+        <v>14.771</v>
       </c>
       <c r="K112" t="n">
-        <v>43.072</v>
+        <v>44.574</v>
       </c>
     </row>
     <row r="113">
@@ -4877,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>21773</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>131727.5</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4889,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>4.437</v>
+        <v>4.772</v>
       </c>
       <c r="K113" t="n">
-        <v>32.644</v>
+        <v>34.499</v>
       </c>
     </row>
     <row r="114">
@@ -4912,10 +4912,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>11031.9</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>126879.1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4924,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2.432</v>
+        <v>2.135</v>
       </c>
       <c r="K114" t="n">
-        <v>32.012</v>
+        <v>36.373</v>
       </c>
     </row>
     <row r="115">
@@ -4947,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>31675.4</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>91030.7</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4959,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>10.437</v>
+        <v>14.195</v>
       </c>
       <c r="K115" t="n">
-        <v>26.912</v>
+        <v>33.625</v>
       </c>
     </row>
     <row r="116">
@@ -4976,28 +4976,28 @@
         <v>153</v>
       </c>
       <c r="D116" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>22279.1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>91312</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>10.458</v>
+        <v>13.114</v>
       </c>
       <c r="K116" t="n">
-        <v>32.805</v>
+        <v>34.037</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_zambia.xlsx
+++ b/public/data/soil/soil_table_zambia.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11048.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>76387.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>56682.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6047.7</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13011.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1023.9</v>
       </c>
       <c r="H4" t="n">
         <v>16.227</v>
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4143.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>12560.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>14494.9</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15818.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1161,16 +1161,16 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7179.3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>70985.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>22165.6</v>
       </c>
       <c r="H7" t="n">
         <v>10.653</v>
@@ -1202,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4255.9</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>6732.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7650.6</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>18279.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7419.2</v>
       </c>
       <c r="H9" t="n">
         <v>57.352</v>
@@ -1266,16 +1266,16 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>463.3</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>14001.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>36614.8</v>
       </c>
       <c r="H10" t="n">
         <v>2.502</v>
@@ -1301,16 +1301,16 @@
         <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1770.3</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6313.3</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2347.6</v>
       </c>
       <c r="H11" t="n">
         <v>8.033</v>
@@ -1336,16 +1336,16 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>8647.1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>11863.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1802.3</v>
       </c>
       <c r="H12" t="n">
         <v>33.75</v>
@@ -1371,13 +1371,13 @@
         <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5154.4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1304.1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>15566.7</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1748.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>6107.2</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>672.1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9725.3</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1550.9</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8204.6</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>655.6</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>19980.1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1272.7</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>31713</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>6005.8</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>24292.8</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>19659.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>58.7</v>
       </c>
       <c r="H20" t="n">
         <v>48.929</v>
@@ -1651,13 +1651,13 @@
         <v>51</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>8457.1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2516.1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>14001.1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2691.5</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>23971.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>45016.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>157.6</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>67163.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1832,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9510</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>53563.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3957.6</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>44940.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>48096.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>127.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>52303.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>66426.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3302.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15131.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2042,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3673.7</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>22017</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>4006.5</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>90210</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57412.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2147,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3714.4</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>37122.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2176,13 +2176,13 @@
         <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2558.5</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>69</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>6018.7</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>8943.9</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1630.7</v>
       </c>
       <c r="H37" t="n">
         <v>34.31</v>
@@ -2246,16 +2246,16 @@
         <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>3222.6</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2670.1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1286.7</v>
       </c>
       <c r="H38" t="n">
         <v>38.895</v>
@@ -2281,13 +2281,13 @@
         <v>71</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>10100.4</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1361.6</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2316,13 +2316,13 @@
         <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>10007.8</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5395.2</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1070.1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1221.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2386,16 +2386,16 @@
         <v>74</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>19042.8</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>731.7</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>7178.9</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1842.6</v>
       </c>
       <c r="H42" t="n">
         <v>209.712</v>
@@ -2421,16 +2421,16 @@
         <v>75</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9284.4</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1536.6</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>178.4</v>
       </c>
       <c r="H43" t="n">
         <v>25.917</v>
@@ -2456,13 +2456,13 @@
         <v>76</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5289.5</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4047.1</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>10477</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>78</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6347.1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>10178.7</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3114.3</v>
       </c>
       <c r="H46" t="n">
         <v>52.966</v>
@@ -2561,16 +2561,16 @@
         <v>79</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1479.4</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>389.6</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>693.2</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2200.5</v>
       </c>
       <c r="H47" t="n">
         <v>20.19</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>23241.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>7875.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>31957.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>21808.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2742,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3697.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>5125.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>11564.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2847,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2189.2</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>18976.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>89</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>614.4</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1511.3</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>26221.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2917,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>10405.4</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>11594.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>5450</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>37322.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2981,16 +2981,16 @@
         <v>92</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>607.4</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>11048.7</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>836.8</v>
       </c>
       <c r="H59" t="n">
         <v>9.672</v>
@@ -3016,16 +3016,16 @@
         <v>93</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>874.9</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>8260.4</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2020.1</v>
       </c>
       <c r="H60" t="n">
         <v>6.879</v>
@@ -3051,16 +3051,16 @@
         <v>94</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>229.9</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>269.4</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>8441.4</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>17473.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>95</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>762.5</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>9002.9</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>9852.8</v>
       </c>
       <c r="H62" t="n">
         <v>5.236</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>11901.1</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>38319.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>97</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>277.6</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>6096.6</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2354.3</v>
       </c>
       <c r="H64" t="n">
         <v>1.158</v>
@@ -3191,16 +3191,16 @@
         <v>99</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>3088.6</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>503.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>6675.8</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3261,13 +3261,13 @@
         <v>101</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>785.1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>6948.2</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>102</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>6066.3</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -3331,16 +3331,16 @@
         <v>103</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>11120.6</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1970.5</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>184.6</v>
       </c>
       <c r="H69" t="n">
         <v>50.997</v>
@@ -3366,13 +3366,13 @@
         <v>104</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>2663.4</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>6754.2</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>105</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>9210.1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>6034.3</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>103.4</v>
       </c>
       <c r="H71" t="n">
         <v>41.215</v>
@@ -3436,13 +3436,13 @@
         <v>106</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>4649</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>6223.9</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>107</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>7806.9</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>3578.5</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>108</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>18482.9</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3541,16 +3541,16 @@
         <v>109</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1339.4</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>9495.7</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1612</v>
       </c>
       <c r="H75" t="n">
         <v>20.039</v>
@@ -3576,16 +3576,16 @@
         <v>111</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2507.4</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>8372.8</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2936.5</v>
       </c>
       <c r="H76" t="n">
         <v>20.038</v>
@@ -3611,16 +3611,16 @@
         <v>112</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>4714.2</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>8382.2</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>5169.4</v>
       </c>
       <c r="H77" t="n">
         <v>18.007</v>
@@ -3646,16 +3646,16 @@
         <v>113</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>11885.3</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>18645.3</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1466.7</v>
       </c>
       <c r="H78" t="n">
         <v>77.341</v>
@@ -3681,13 +3681,13 @@
         <v>114</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>735.6</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>5567.7</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3716,13 +3716,13 @@
         <v>115</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>9153.1</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>8143.6</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>116</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>2108.8</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>7456.1</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3786,16 +3786,16 @@
         <v>117</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>2616.5</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>26421.6</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>4646.9</v>
       </c>
       <c r="H82" t="n">
         <v>29.759</v>
@@ -3821,13 +3821,13 @@
         <v>118</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>3376.8</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2273.9</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3856,16 +3856,16 @@
         <v>119</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>3225.1</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>15897.2</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>540.5</v>
       </c>
       <c r="H84" t="n">
         <v>39.607</v>
@@ -3891,16 +3891,16 @@
         <v>120</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>438.4</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>22196.5</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>8024.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3926,16 +3926,16 @@
         <v>121</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>2724.9</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>6539.2</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2420</v>
       </c>
       <c r="H86" t="n">
         <v>16.148</v>
@@ -3961,16 +3961,16 @@
         <v>122</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>191.1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>24474</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>9976</v>
       </c>
       <c r="H87" t="n">
         <v>0.896</v>
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>400.3</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>26182</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>906.5</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>41109.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>6596.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>62095.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4142,10 +4142,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>353.9</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>34110.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>3124.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>39226.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>61829.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4282,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1418.4</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>27994.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>14552.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4352,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>8089.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4387,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>278.1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>19176.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4422,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>536.7</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>28897.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4457,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>14444.5</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>4170.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4486,16 +4486,16 @@
         <v>139</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>569.7</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>20461.7</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>2258.9</v>
       </c>
       <c r="H102" t="n">
         <v>2.693</v>
@@ -4527,10 +4527,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>7410.2</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2989.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4562,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>12032.5</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>884.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4591,16 +4591,16 @@
         <v>142</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>65.9</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>8348.8</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>5412.2</v>
       </c>
       <c r="H105" t="n">
         <v>3.556</v>
@@ -4632,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>456.8</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2264.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4667,10 +4667,10 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>15877.9</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>3172.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1042.1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>8387</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4737,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>6811.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4772,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>3808.9</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>7282.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4801,13 +4801,13 @@
         <v>148</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>647.3</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>12230.3</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4842,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>7404.3</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>11041.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4877,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>750.6</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>10133.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4912,10 +4912,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>8837.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4947,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>4586.9</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>3055.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4982,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1473.6</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>4498.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
